--- a/inputs/prod_cat open.xlsx
+++ b/inputs/prod_cat open.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kozh/Google Drive/Projects/PFP_AVR_GH/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EC3DBA-954A-5B45-B697-B0F7B2031952}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D439FBE-34A6-5843-A0FA-F62A680F1226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17540" xr2:uid="{7BD76FDF-A6D8-A849-B0E5-7FF8D396919C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{7BD76FDF-A6D8-A849-B0E5-7FF8D396919C}"/>
   </bookViews>
   <sheets>
     <sheet name="prod cat" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>coupon_value</t>
   </si>
@@ -238,9 +238,6 @@
     <t>ALRS RX Equity, MTSS RX Equity, YNDX RX Equity, MOEX RX Equity</t>
   </si>
   <si>
-    <t>T US Equity, VOW3 EU Equity, TWTR US Equity, ADS GY Equity, BP US Equity</t>
-  </si>
-  <si>
     <t>GMKN RX Equity</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
   </si>
   <si>
     <t>Solars</t>
-  </si>
-  <si>
-    <t>Leaders coupon</t>
   </si>
 </sst>
 </file>
@@ -624,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFC2CE3-4A67-1E4E-AE6D-27FEAE6C304B}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +634,7 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -662,11 +656,8 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -674,25 +665,22 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -714,11 +702,8 @@
       <c r="G3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -726,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>68</v>
@@ -740,11 +725,8 @@
       <c r="G4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -766,11 +748,8 @@
       <c r="G5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -792,13 +771,10 @@
       <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
+      <c r="H6"/>
       <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -820,13 +796,10 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.11</v>
-      </c>
+      <c r="H7"/>
       <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -848,13 +821,10 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
+      <c r="H8"/>
       <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -876,13 +846,10 @@
       <c r="G9" s="1">
         <v>12</v>
       </c>
-      <c r="H9" s="1">
-        <v>12</v>
-      </c>
+      <c r="H9"/>
       <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -904,13 +871,10 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
+      <c r="H10"/>
       <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -932,13 +896,10 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
+      <c r="H11"/>
       <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -960,13 +921,10 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1">
-        <v>100000</v>
-      </c>
+      <c r="H12"/>
       <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -988,11 +946,8 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -1014,11 +969,8 @@
       <c r="G14" s="1">
         <v>12</v>
       </c>
-      <c r="H14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1040,11 +992,8 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1066,11 +1015,8 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1092,11 +1038,8 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -1118,11 +1061,8 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1144,11 +1084,8 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1170,11 +1107,8 @@
       <c r="G20" s="1">
         <v>0.78</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1196,19 +1130,15 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1217,9 +1147,8 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1229,9 +1158,8 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1241,9 +1169,8 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1253,36 +1180,33 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D32"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
